--- a/Output_testing/R1_201907/Country/HKD/MN/C & S AMERICA, NES_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/C & S AMERICA, NES_201907_HKD_MN.xlsx
@@ -810,136 +810,433 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>74.093934</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>31.15161878113909</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>99.732258</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>40.3419130491638</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>72.091112</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>32.80134324638427</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>28.991125</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>27.70299236894834</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-37.12727288341831</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>57.672886</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>24.24764972906005</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>43.058501</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>17.41725634417434</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>51.000467</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>23.2051327463626</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>26.745064</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>25.55672827111866</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>17.68734729173658</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>1.526922</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.641970124741041</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1.995156</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>0.8070448968629333</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>1.802938</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>0.8203339711273917</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>6.704061</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>6.406186400974924</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>357.6972521346835</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>2.170887</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>0.9127149901492703</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>5.414283</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>2.190089128530166</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>1.344102</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.6115643085121448</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>5.578282</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>5.330427973313967</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>330.9880004728421</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>13.485346</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>5.669699731745366</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>10.190865</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>4.122226829816354</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>13.356643</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>6.077251682043908</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>4.54682</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>4.344795856076012</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-10.35290452709137</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>7.608905</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>3.199043364358317</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>6.763888</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>2.736007256250856</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>5.842712</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>2.658424824987695</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>3.67334</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>3.510126288253825</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-2.110074800380868</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>2.77166</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>1.16530046455533</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>10.01289</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>4.050235559199329</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>4.412679</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>2.00776204582767</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>3.519297</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>3.362927721330675</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-0.08554045498551099</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>4.837128</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>2.033693709009617</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>1.006233</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.4070234145626107</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>3.877742</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>1.764366547195452</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>3.199582</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>3.057418286797234</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>67.12215143558402</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>5.092963</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>2.141255475008878</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>3.385201</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.369321091636593</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>3.732612</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>1.69833262410452</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>1.643485</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.57046173315044</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-46.58960029742406</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>1.274276</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.5357491231867212</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>1.849212</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.7480102346972861</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>2.265337</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>1.030724793171929</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>1.603849</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.532586838487483</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>210.1424585164745</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>67.31447900000001</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>28.30130450704632</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>63.808986</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>25.81087219510572</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>60.054631</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>27.32476321028242</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>18.444891</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>17.62534826154845</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-46.76799748709985</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -971,136 +1268,495 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="n">
+        <v>5.778309</v>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>41.64335433767149</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>5.602506</v>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>43.40504357931435</v>
+      </c>
+      <c r="G31" s="8" t="n">
+        <v>4.950083</v>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>28.97530917746213</v>
+      </c>
+      <c r="I31" s="8" t="n">
+        <v>3.294324</v>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>41.4102954423238</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>6.272389929052258</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="n">
+        <v>5.665955</v>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>40.83363692151137</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>4.05686</v>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>31.43025372845245</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>8.628878</v>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>50.50913447402823</v>
+      </c>
+      <c r="I32" s="8" t="n">
+        <v>3.264041</v>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>41.02963222374545</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>3.538964293463298</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>NITROGEN-FUNCTION COMPOUNDS</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>1.010475</v>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>7.282332681474562</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>0.6780620000000001</v>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>5.253240364129383</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>0.682675</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>3.996037883147405</v>
+      </c>
+      <c r="I33" s="8" t="n">
+        <v>0.68852</v>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>8.654830738551759</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>102.3660117271885</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTS (INCLUDING VETERINARY MEDICAMENTS)</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>0.972571</v>
+      </c>
+      <c r="D34" s="9" t="n">
+        <v>7.009164579385335</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>2.209995</v>
+      </c>
+      <c r="F34" s="9" t="n">
+        <v>17.12178965717606</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>1.884827</v>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>11.03283421127048</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="n">
+        <v>5.266333522975676</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-60.57827389157742</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>NON-ALCOHOLIC BEVERAGES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.7020039702487189</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>0.4299593259732714</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>0.3429916663139933</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="n">
+        <v>0.9954588913138193</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>229.2395958924043</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>FIXED VEGETABLE FATS AND OILS, `SOFT', CRUDE, REFINED OR FRACTIONATED</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="n">
+        <v>0.256742204144877</v>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>0.2833445047374422</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="n">
+        <v>0.7146533027056339</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>132.1478154348714</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.4676375002207095</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="n">
+        <v>0.7604493511524307</v>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>0.2664161837090431</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="n">
+        <v>0.6304078550646447</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>38.50423927752769</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>SPICES</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="n">
+        <v>0.07833836190665627</v>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>0.252643811737362</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="n">
+        <v>0.06473970628426455</v>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="n">
+        <v>0.424244085031839</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>205.1537070524412</v>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>0.840209560523231</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>0.662560526825489</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="n">
+        <v>0.4798347814598827</v>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="n">
+        <v>0.4211015362538254</v>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>CEREAL PREPARATIONS AND PREPARATIONS OF FLOUR OR STARCH OF FRUITS OR VEGETABLES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="n">
+        <v>0.3947186827624254</v>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>0.1818942475305055</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="n">
+        <v>0.08466501914065123</v>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="n">
+        <v>0.304047879370374</v>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>0.7486034042954934</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.2454232035638195</v>
+      </c>
+      <c r="G41" s="8" t="n">
+        <v>0.67732</v>
+      </c>
+      <c r="H41" s="9" t="n">
+        <v>3.964692392446481</v>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="n">
+        <v>0.1489945226631819</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-98.22864034360163</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1132,136 +1788,447 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>74.093934</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>33.08153603994212</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>99.732258</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>42.56423946581224</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>72.091112</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>35.56591794287338</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>28.991125</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>29.98219546578</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-37.12727288341831</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>52.006931</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>23.22010816976303</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>39.001641</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>16.64531837917117</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>42.371589</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>20.90388697962041</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>23.481023</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>24.28372894540918</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>19.96611564699739</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>1.526922</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.6817417087501455</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1.995156</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>0.8515028082052657</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>1.802938</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>0.8894736561157255</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>6.704061</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>6.933241373575965</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>357.6972521346835</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>2.170887</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>0.9692598658500415</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>5.414283</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>2.310735190089412</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>1.344102</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.6631083931518771</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>5.578282</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>5.768977274501841</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>330.9880004728421</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>13.485346</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>6.020951184884978</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>10.190865</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>4.349309109433426</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>13.356643</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>6.589456810296588</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>4.54682</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>4.702254430889377</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-10.35290452709137</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>2.77166</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>1.237493614260865</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>10.01289</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>4.273352035254598</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>4.412679</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>2.176980974051844</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>3.519297</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>3.639605243195397</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-0.08554045498551099</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>771</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRIC POWER MACHINERY (OTHER THAN ROTATING ELECTRIC PLANT OF GROUP 716), AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>4.837128</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>2.159685896308504</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>1.006233</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.4294452289489188</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>3.877742</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.913071527813771</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>3.199582</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>3.308960688237911</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>67.12215143558402</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>PEARLS, PRECIOUS AND SEMI-PRECIOUS STONES, UNWORKED OR WORKED</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>5.092963</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>2.273911370863258</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>3.385201</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>1.444753271342829</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>3.732612</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.841472109690644</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>1.643485</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.699668036858778</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-46.58960029742406</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>1.274276</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.5689400622031122</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>1.849212</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.7892160868457784</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>2.265337</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>1.117596713655283</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>1.603849</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.658677068088795</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>210.1424585164745</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>NON-ELECTRIC PARTS AND ACCESSORIES OF MACHINERY, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E53" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F53" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>1.374026</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.420997498616001</v>
+      </c>
+      <c r="K53" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>66.713634</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>29.78637208717394</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>61.634734</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>26.30478473060982</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>57.442424</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>28.33903489273047</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>16.05292</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>16.60169397484675</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-51.55230619022646</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1293,136 +2260,477 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>1.850589</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>1.700373795946544</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>11.140824</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>14.38584549897605</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>19.4142</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>34.06797130760227</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>8.2766</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>24.68689055301546</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-11.86855779879036</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>036</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>CRUSTACEANS, MOLLUSCS &amp; AQUATIC INVERTEBRATES; CRUSTACEANS, IN SHELL, COOKED BY BOILING IN WATER; FLOURS, MEALS &amp; PELLETS OF CRUSTACEANS, FIT FOR HUMAN CONSUMPTION</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>2.684633</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>2.466717139750295</v>
+      </c>
+      <c r="E58" s="8" t="n">
+        <v>4.367139</v>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>5.639168783794875</v>
+      </c>
+      <c r="G58" s="8" t="n">
+        <v>11.549195</v>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>20.26648761658495</v>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>7.605753</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>22.68593285700275</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>58.79820969351952</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ALCOHOLIC BEVERAGES</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>4.66448</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>13.91289989207278</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="n">
+        <v>6.026389</v>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>5.537217577636363</v>
+      </c>
+      <c r="E60" s="8" t="n">
+        <v>12.179116</v>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>15.72656394985749</v>
+      </c>
+      <c r="G60" s="8" t="n">
+        <v>7.630167</v>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>13.38939077727713</v>
+      </c>
+      <c r="I60" s="8" t="n">
+        <v>4.124319</v>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>12.30174368203395</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-21.51228644962293</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="n">
+        <v>4.245894</v>
+      </c>
+      <c r="D61" s="9" t="n">
+        <v>3.901248142059991</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>3.272132</v>
+      </c>
+      <c r="F61" s="9" t="n">
+        <v>4.225215783343807</v>
+      </c>
+      <c r="G61" s="8" t="n">
+        <v>7.528167</v>
+      </c>
+      <c r="H61" s="9" t="n">
+        <v>13.21040152851203</v>
+      </c>
+      <c r="I61" s="8" t="n">
+        <v>3.922812</v>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>11.70070203997483</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>553</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PERFUMERY, COSMETICS OR TOILET PREPARATIONS (EXCLUDING SOAPS)</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="n">
+        <v>20.948159</v>
+      </c>
+      <c r="F62" s="9" t="n">
+        <v>27.04979262413486</v>
+      </c>
+      <c r="G62" s="8" t="n">
+        <v>0.697416</v>
+      </c>
+      <c r="H62" s="9" t="n">
+        <v>1.223823195262372</v>
+      </c>
+      <c r="I62" s="8" t="n">
+        <v>2.281161</v>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>6.804094911051313</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>420.575308078503</v>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="n">
+        <v>5.201894</v>
+      </c>
+      <c r="D63" s="9" t="n">
+        <v>4.779648126564869</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>2.244581</v>
+      </c>
+      <c r="F63" s="9" t="n">
+        <v>2.898366896015694</v>
+      </c>
+      <c r="G63" s="8" t="n">
+        <v>4.367701</v>
+      </c>
+      <c r="H63" s="9" t="n">
+        <v>7.66442667471159</v>
+      </c>
+      <c r="I63" s="8" t="n">
+        <v>1.827989</v>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>5.452403689330906</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-28.62239614652333</v>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.3797343347240169</v>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>0.5964854957241044</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="n">
+        <v>0.4820935031763484</v>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.5038910352637822</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>42.14339203527165</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="n">
+        <v>1.099105</v>
+      </c>
+      <c r="D65" s="9" t="n">
+        <v>1.009888927792085</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>1.999832</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>2.582329114606627</v>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>0.08746432476665636</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="n">
+        <v>0.4251498584872006</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>542.4347590931626</v>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRICAL APPARATUS FOR SWITCHING ELECTRICAL CIRCUITS; ELECTRICAL RESISTORS; PRINTED CIRCUITS; BOARDS, CABINETS AND OTHER BASES ETC, FOR ELECTRIC CONTROL OF ELECTRICITY</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.2829311648835239</v>
+      </c>
+      <c r="E66" s="8" t="n">
+        <v>0.517983</v>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.6688574749135351</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="n">
+        <v>0.3794006949052767</v>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="n">
+        <v>87.004535</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>79.94224079064232</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>20.311254</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>26.22737437863296</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>5.469365</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>9.597622868354302</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="n">
+        <v>1.146890786861752</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-90.83379759119896</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
